--- a/Documents/Finance/Timesheets/Prakruti Sinha/Prakruti timesheet wk 10.xlsx
+++ b/Documents/Finance/Timesheets/Prakruti Sinha/Prakruti timesheet wk 10.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="13440" yWindow="0" windowWidth="14100" windowHeight="15320"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Weekly Employee Timesheet</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>P.S</t>
+  </si>
+  <si>
+    <t>Ankita Gangotra</t>
+  </si>
+  <si>
+    <t>A.G</t>
   </si>
 </sst>
 </file>
@@ -613,9 +619,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -639,6 +642,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -949,7 +955,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1020,12 +1026,14 @@
         <v>2</v>
       </c>
       <c r="F6" s="28"/>
-      <c r="G6" s="34"/>
+      <c r="G6" s="31" t="s">
+        <v>27</v>
+      </c>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="28"/>
@@ -1046,10 +1054,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="36">
+      <c r="G8" s="35">
         <v>41708</v>
       </c>
-      <c r="H8" s="37"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="10" t="s">
         <v>4</v>
       </c>
@@ -1169,7 +1177,7 @@
         <v>41712</v>
       </c>
       <c r="B15" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1179,7 +1187,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
@@ -1188,7 +1196,7 @@
         <v>41713</v>
       </c>
       <c r="B16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1198,7 +1206,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
@@ -1207,7 +1215,7 @@
         <v>41714</v>
       </c>
       <c r="B17" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1217,7 +1225,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
@@ -1226,7 +1234,7 @@
       </c>
       <c r="B18" s="21">
         <f t="shared" ref="B18:I18" si="2">SUM(B11:B17)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C18" s="21">
         <f t="shared" si="2"/>
@@ -1254,7 +1262,7 @@
       </c>
       <c r="I18" s="15">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
@@ -1292,7 +1300,7 @@
       </c>
       <c r="B20" s="6">
         <f t="shared" ref="B20:H20" si="3">B19*B18</f>
-        <v>87.5</v>
+        <v>162.5</v>
       </c>
       <c r="C20" s="6">
         <f t="shared" si="3"/>
@@ -1320,30 +1328,30 @@
       </c>
       <c r="I20" s="22">
         <f>SUM(B20:H20)</f>
-        <v>87.5</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1"/>
     <row r="22" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="37" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
       <c r="D22" s="13">
         <f>I18</f>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="37" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
       <c r="D23" s="13">
         <f>I20</f>
-        <v>87.5</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1"/>
@@ -1353,48 +1361,52 @@
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
-      <c r="D25" s="36">
+      <c r="D25" s="35">
         <v>41715</v>
       </c>
-      <c r="E25" s="37"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="39" t="s">
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="40"/>
+      <c r="E26" s="39"/>
     </row>
     <row r="27" spans="1:9" s="12" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A27" s="34"/>
+      <c r="A27" s="31" t="s">
+        <v>28</v>
+      </c>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
-      <c r="D27" s="34"/>
+      <c r="D27" s="42">
+        <v>41800</v>
+      </c>
       <c r="E27" s="32"/>
     </row>
     <row r="28" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="39" t="s">
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="40"/>
+      <c r="E28" s="39"/>
     </row>
     <row r="29" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1"/>
     <row r="30" spans="1:9" ht="12">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="25">
